--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/42.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/42.xlsx
@@ -479,13 +479,13 @@
         <v>-14.73252777330458</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.108697477610328</v>
+        <v>-8.759892345301061</v>
       </c>
       <c r="F2" t="n">
-        <v>5.613819637058945</v>
+        <v>6.71451572156854</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.76214032026131</v>
+        <v>-16.26815782509402</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.35315323749604</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.416562978933516</v>
+        <v>-8.925706360791523</v>
       </c>
       <c r="F3" t="n">
-        <v>5.518926626062115</v>
+        <v>6.659370941999189</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.29881681499546</v>
+        <v>-15.79572207705033</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.77932901270031</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.48212923156488</v>
+        <v>-8.940461386094148</v>
       </c>
       <c r="F4" t="n">
-        <v>5.665665156312181</v>
+        <v>6.744601833498826</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.54161038784139</v>
+        <v>-14.940349563189</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.03432311903983</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.42171143730419</v>
+        <v>-9.942323676451553</v>
       </c>
       <c r="F5" t="n">
-        <v>5.731781285662898</v>
+        <v>6.82700478758465</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.61183431693053</v>
+        <v>-13.80037657015423</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.12908901081755</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.01209574164899</v>
+        <v>-10.55461140345055</v>
       </c>
       <c r="F6" t="n">
-        <v>5.942750653654471</v>
+        <v>7.025169883397015</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.85898762662276</v>
+        <v>-13.03854856009703</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.09080745155077</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.80819940054583</v>
+        <v>-11.43869533744379</v>
       </c>
       <c r="F7" t="n">
-        <v>6.253640476934098</v>
+        <v>7.354100899992541</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.57976490056339</v>
+        <v>-11.55183901860199</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.956010269087118</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.60828311950655</v>
+        <v>-12.24201285520642</v>
       </c>
       <c r="F8" t="n">
-        <v>6.512292011875238</v>
+        <v>7.669049337153104</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.87786036061277</v>
+        <v>-10.75104831528781</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.751574037464723</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.32633046886101</v>
+        <v>-13.02711897971621</v>
       </c>
       <c r="F9" t="n">
-        <v>6.577517864632718</v>
+        <v>7.734955989658353</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.725344941455626</v>
+        <v>-9.373921348578014</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.516794024114041</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.35751951758388</v>
+        <v>-14.09626261437724</v>
       </c>
       <c r="F10" t="n">
-        <v>6.745073156401128</v>
+        <v>7.853938837883959</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.115309090545399</v>
+        <v>-8.664187611528044</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.263554543655042</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.25953990647029</v>
+        <v>-14.98491576206224</v>
       </c>
       <c r="F11" t="n">
-        <v>6.96580938231263</v>
+        <v>8.096329732695676</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.352996665283058</v>
+        <v>-7.727891573802005</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.020113809944643</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.48592209826045</v>
+        <v>-16.33139364781956</v>
       </c>
       <c r="F12" t="n">
-        <v>6.911711986970618</v>
+        <v>7.998739707313449</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.927824130498004</v>
+        <v>-7.267055606076089</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.785082275503594</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.41813333749987</v>
+        <v>-17.38851854847189</v>
       </c>
       <c r="F13" t="n">
-        <v>6.790267785810767</v>
+        <v>7.944432835125969</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.633679362552944</v>
+        <v>-7.112082017338577</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.58240161980937</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.7612595937297</v>
+        <v>-18.83697238106341</v>
       </c>
       <c r="F14" t="n">
-        <v>6.823705527268535</v>
+        <v>7.867423909810936</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.736542402626506</v>
+        <v>-6.117616878086748</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.414869674009072</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.82635770681265</v>
+        <v>-19.9743792827412</v>
       </c>
       <c r="F15" t="n">
-        <v>6.799196736348824</v>
+        <v>7.889733193853238</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.265206408021527</v>
+        <v>-5.658443632821732</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.3017562743422756</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.78276352170358</v>
+        <v>-20.95043664419756</v>
       </c>
       <c r="F16" t="n">
-        <v>6.720066857973431</v>
+        <v>7.747315123540942</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.667202383422847</v>
+        <v>-5.031728188091146</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7484375267192663</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.82949313389958</v>
+        <v>-22.11476132051795</v>
       </c>
       <c r="F17" t="n">
-        <v>7.025588837087951</v>
+        <v>8.094522994903517</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.71091758261137</v>
+        <v>-5.219380164721606</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.72445209937068</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.6787122654253</v>
+        <v>-23.00891323539647</v>
       </c>
       <c r="F18" t="n">
-        <v>7.392566085741533</v>
+        <v>8.531727356000118</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.17837507222132</v>
+        <v>-4.634010212365192</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.616352745789784</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.3008846810698</v>
+        <v>-23.62588800681281</v>
       </c>
       <c r="F19" t="n">
-        <v>7.699947171859577</v>
+        <v>8.83423810546104</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.323971388770278</v>
+        <v>-3.764380180709221</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.42207921265282</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.19253596610556</v>
+        <v>-24.55430247822813</v>
       </c>
       <c r="F20" t="n">
-        <v>7.911780631838705</v>
+        <v>9.061991805695707</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.845840488990441</v>
+        <v>-3.418808847201862</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.131824340116404</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.36894165459497</v>
+        <v>-24.55334674012068</v>
       </c>
       <c r="F21" t="n">
-        <v>7.77339499080166</v>
+        <v>8.868435200483628</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.795225646204328</v>
+        <v>-3.428038920705279</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.750482325732217</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.05056621744376</v>
+        <v>-25.21782038624681</v>
       </c>
       <c r="F22" t="n">
-        <v>8.164540630501069</v>
+        <v>9.284927538484618</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.143703470942551</v>
+        <v>-3.929997811657056</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.270141496192188</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.20483282182782</v>
+        <v>-25.29709427995346</v>
       </c>
       <c r="F23" t="n">
-        <v>7.835269214031658</v>
+        <v>8.854347882625932</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.020373978173492</v>
+        <v>-3.83938598368947</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.699502223353296</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.61281516298168</v>
+        <v>-25.72175621492769</v>
       </c>
       <c r="F24" t="n">
-        <v>7.811127007591515</v>
+        <v>8.828084723125428</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.876607400668497</v>
+        <v>-3.758279167584977</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.036745813431002</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.6862106127124</v>
+        <v>-25.67949426135459</v>
       </c>
       <c r="F25" t="n">
-        <v>7.932885424019567</v>
+        <v>8.970712270283192</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.771659501089221</v>
+        <v>-3.627552523710342</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.295357307126585</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.00811106268192</v>
+        <v>-26.01347890684703</v>
       </c>
       <c r="F26" t="n">
-        <v>7.836971213401082</v>
+        <v>8.861574833794563</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.579176464710164</v>
+        <v>-3.463296492258047</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.482642975427076</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.95682851245088</v>
+        <v>-26.01436918344027</v>
       </c>
       <c r="F27" t="n">
-        <v>7.775803974524538</v>
+        <v>8.734998449920756</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.680406150282391</v>
+        <v>-3.640186595952608</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.61363663047216</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.90575543906531</v>
+        <v>-25.93444067459153</v>
       </c>
       <c r="F28" t="n">
-        <v>7.631919566293968</v>
+        <v>8.642121653561551</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.888377380923209</v>
+        <v>-3.921841306986661</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.699337844691704</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.80935681324168</v>
+        <v>-25.69568943996981</v>
       </c>
       <c r="F29" t="n">
-        <v>7.579602724138431</v>
+        <v>8.572837186923138</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.688392455015844</v>
+        <v>-3.732696807832244</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.750509734892148</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.67551420129071</v>
+        <v>-25.60731639578816</v>
       </c>
       <c r="F30" t="n">
-        <v>7.676250103716053</v>
+        <v>8.678806286124068</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.845185873848355</v>
+        <v>-3.864130436060333</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.775102992033914</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.34548343125648</v>
+        <v>-25.30206935503332</v>
       </c>
       <c r="F31" t="n">
-        <v>7.511444195544405</v>
+        <v>8.499598844826522</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.219573365910353</v>
+        <v>-4.315736330282832</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.775678911631689</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.92625480196157</v>
+        <v>-24.84707255437481</v>
       </c>
       <c r="F32" t="n">
-        <v>7.637444518093177</v>
+        <v>8.704441015088168</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.151414837316327</v>
+        <v>-4.18055830344201</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.754242960172678</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.76802122981647</v>
+        <v>-24.73243635069266</v>
       </c>
       <c r="F33" t="n">
-        <v>7.640822332226342</v>
+        <v>8.767912499264856</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.283686372926286</v>
+        <v>-4.316692068390277</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.707917723852536</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.36768479352217</v>
+        <v>-24.3665326708721</v>
       </c>
       <c r="F34" t="n">
-        <v>7.751818875718496</v>
+        <v>8.908680939419094</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.322256297098011</v>
+        <v>-4.329941478866104</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.636291242224049</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.22008217128455</v>
+        <v>-24.18202284692365</v>
       </c>
       <c r="F35" t="n">
-        <v>7.648965744593895</v>
+        <v>8.79312827453802</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.484129529433112</v>
+        <v>-4.493019203062644</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.535899788782974</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86249210376848</v>
+        <v>-23.88958007834801</v>
       </c>
       <c r="F36" t="n">
-        <v>7.783476063989789</v>
+        <v>8.968669871039884</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.430202334028042</v>
+        <v>-4.356008253823981</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.407187410529291</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.29126183848113</v>
+        <v>-23.25038766900926</v>
       </c>
       <c r="F37" t="n">
-        <v>7.75124281439346</v>
+        <v>8.908052508882692</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.542953246100987</v>
+        <v>-4.469727996307213</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.251757113723081</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.78515268752853</v>
+        <v>-22.79199996191475</v>
       </c>
       <c r="F38" t="n">
-        <v>7.716836242525404</v>
+        <v>8.946203479363481</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.506032952087319</v>
+        <v>-4.482479899275055</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>6.072292773472518</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59375631228534</v>
+        <v>-22.63891166478645</v>
       </c>
       <c r="F39" t="n">
-        <v>7.884522457322231</v>
+        <v>9.091606594723691</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.717997335094865</v>
+        <v>-4.766910178511553</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.87617185038564</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.89651263214637</v>
+        <v>-21.93834253972569</v>
       </c>
       <c r="F40" t="n">
-        <v>8.146866021664739</v>
+        <v>9.406083708981951</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.687034038874183</v>
+        <v>-4.687780300136161</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.666370158770794</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.23278524728223</v>
+        <v>-21.2237384660186</v>
       </c>
       <c r="F41" t="n">
-        <v>8.137334825195962</v>
+        <v>9.376233258502817</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.710691830109182</v>
+        <v>-4.734127052195872</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.452112572242605</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.52349664852888</v>
+        <v>-20.53249106058114</v>
       </c>
       <c r="F42" t="n">
-        <v>8.149641589867183</v>
+        <v>9.336380288652602</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.048329228094455</v>
+        <v>-5.062023776866901</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.234525960456027</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.70499205946984</v>
+        <v>-19.62777365730934</v>
       </c>
       <c r="F43" t="n">
-        <v>8.255453581434015</v>
+        <v>9.469947962243891</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.204782247053082</v>
+        <v>-5.220257349012002</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.019667788500039</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.01652022223484</v>
+        <v>-18.98069968165988</v>
       </c>
       <c r="F44" t="n">
-        <v>8.043829598300354</v>
+        <v>9.169662904266062</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.011893349285931</v>
+        <v>-4.97729039287525</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.805839008870246</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.5516911021422</v>
+        <v>-18.46640784143119</v>
       </c>
       <c r="F45" t="n">
-        <v>8.078445647013877</v>
+        <v>9.252196781380302</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.207138861564593</v>
+        <v>-5.106171022049201</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.59358271791193</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.86659707904036</v>
+        <v>-17.84147294988708</v>
       </c>
       <c r="F46" t="n">
-        <v>8.174621703689198</v>
+        <v>9.258795302012533</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.343521380266853</v>
+        <v>-5.22228665595247</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.379327551175873</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.70917522967144</v>
+        <v>-17.73731058847831</v>
       </c>
       <c r="F47" t="n">
-        <v>8.041865752874095</v>
+        <v>9.126275012648582</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.637666148211912</v>
+        <v>-5.542904060243499</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.160284159681432</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.07372721894543</v>
+        <v>-17.0475818901705</v>
       </c>
       <c r="F48" t="n">
-        <v>7.993293309331292</v>
+        <v>9.027087726319666</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.731970005580865</v>
+        <v>-5.640035855026265</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.933485956190763</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.21864273574661</v>
+        <v>-16.14673980853985</v>
       </c>
       <c r="F49" t="n">
-        <v>7.937441545408488</v>
+        <v>8.947172309773769</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.962276704869669</v>
+        <v>-5.803859840484783</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.695921667967502</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.66259954175566</v>
+        <v>-15.59082753757732</v>
       </c>
       <c r="F50" t="n">
-        <v>7.683189024222168</v>
+        <v>8.689646712877018</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.187346483021781</v>
+        <v>-6.070052541862758</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.448207428095571</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.94507588451487</v>
+        <v>-14.85903327023904</v>
       </c>
       <c r="F51" t="n">
-        <v>7.526552713023757</v>
+        <v>8.466553872454005</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.143749114558834</v>
+        <v>-5.984795465757437</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.189090321751255</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.28026183851486</v>
+        <v>-14.1490900563436</v>
       </c>
       <c r="F52" t="n">
-        <v>7.404899035018438</v>
+        <v>8.29965319582768</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.334883643745193</v>
+        <v>-6.097192885653656</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>2.922558781353983</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.78789960554607</v>
+        <v>-13.66780391157891</v>
       </c>
       <c r="F53" t="n">
-        <v>7.44428068196635</v>
+        <v>8.370692031046888</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.372471645203788</v>
+        <v>-6.125223506037791</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.647232973417154</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.33645081895767</v>
+        <v>-13.26244003099339</v>
       </c>
       <c r="F54" t="n">
-        <v>7.225194086212906</v>
+        <v>8.150270020403587</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.592278317613527</v>
+        <v>-6.350712237880839</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.369067985200196</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.74254468514845</v>
+        <v>-12.68531822942726</v>
       </c>
       <c r="F55" t="n">
-        <v>7.202046894788735</v>
+        <v>8.056869531930714</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.907436231619557</v>
+        <v>-6.7258721758105</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.087138899680143</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.46339060395717</v>
+        <v>-12.36636354759713</v>
       </c>
       <c r="F56" t="n">
-        <v>7.237998358392114</v>
+        <v>8.144771253210061</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.871196737353659</v>
+        <v>-6.625323289986044</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.808152225247055</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.00951974134305</v>
+        <v>-11.91024080889424</v>
       </c>
       <c r="F57" t="n">
-        <v>6.893618424443352</v>
+        <v>7.743675463350942</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.110942986991347</v>
+        <v>-6.852370005867257</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.531883023298674</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.58189894592659</v>
+        <v>-11.45729949978188</v>
       </c>
       <c r="F58" t="n">
-        <v>7.03726717122277</v>
+        <v>7.927857979728344</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.837919286883871</v>
+        <v>-7.716894039414955</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.262168413111133</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.53051165727282</v>
+        <v>-11.52594244358105</v>
       </c>
       <c r="F59" t="n">
-        <v>6.895032393150259</v>
+        <v>7.778134404430365</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.862323339380848</v>
+        <v>-7.675666377766359</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.9981385811244198</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.29644746706844</v>
+        <v>-11.34313461900203</v>
       </c>
       <c r="F60" t="n">
-        <v>6.750755215834437</v>
+        <v>7.609060405532315</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.098207359680226</v>
+        <v>-7.924040454976745</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.7398291090358323</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.34005792783423</v>
+        <v>-11.39636792235649</v>
       </c>
       <c r="F61" t="n">
-        <v>6.58314755485466</v>
+        <v>7.416629738364625</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.560732234472725</v>
+        <v>-8.391828435511616</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.4862503672199833</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.40318901213703</v>
+        <v>-11.56685588996145</v>
       </c>
       <c r="F62" t="n">
-        <v>6.59186702854725</v>
+        <v>7.525086375105484</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.782528936914407</v>
+        <v>-8.657680737015706</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2349775852904593</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.04410642209701</v>
+        <v>-11.17136360571859</v>
       </c>
       <c r="F63" t="n">
-        <v>6.898488761100474</v>
+        <v>7.902458912215396</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.825602613263685</v>
+        <v>-8.723076789710127</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.01346171122135897</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.8099374934699</v>
+        <v>-10.83045313202288</v>
       </c>
       <c r="F64" t="n">
-        <v>6.747377401701272</v>
+        <v>7.747812631048927</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.038064503779216</v>
+        <v>-8.993092443517886</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2617984108403651</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.84605915701022</v>
+        <v>-10.83637085290734</v>
       </c>
       <c r="F65" t="n">
-        <v>6.71922895059156</v>
+        <v>7.730556975903532</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.104874525180543</v>
+        <v>-9.052767159870474</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5067672939848293</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.56677415279052</v>
+        <v>-10.52246979997412</v>
       </c>
       <c r="F66" t="n">
-        <v>6.555522795858618</v>
+        <v>7.514979117311671</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.479104909608441</v>
+        <v>-9.495967795668586</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7498734110288942</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.79992188179598</v>
+        <v>-10.7528026838686</v>
       </c>
       <c r="F67" t="n">
-        <v>6.312110701425246</v>
+        <v>7.287408709316789</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.526996553403476</v>
+        <v>-9.538517779904195</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9861167434137126</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93465477034018</v>
+        <v>-10.97298903306075</v>
       </c>
       <c r="F68" t="n">
-        <v>6.279694159589133</v>
+        <v>7.25169290716456</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.352908202517044</v>
+        <v>-9.388231235584021</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.216183684804329</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.73406759850209</v>
+        <v>-10.77831958210713</v>
       </c>
       <c r="F69" t="n">
-        <v>6.281448528169925</v>
+        <v>7.193432159518879</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.365725566999094</v>
+        <v>-9.342460544849347</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.436057137868252</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.98197035281018</v>
+        <v>-11.0620821538987</v>
       </c>
       <c r="F70" t="n">
-        <v>6.071133775320437</v>
+        <v>7.035198587373777</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.461207731623801</v>
+        <v>-9.539669902554266</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.646846752856376</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.95155693330885</v>
+        <v>-11.01099598821028</v>
       </c>
       <c r="F71" t="n">
-        <v>5.758672875699802</v>
+        <v>6.600822163690991</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.432273742343588</v>
+        <v>-9.486672260650959</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.84676768646835</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.99967114625219</v>
+        <v>-11.01650784770665</v>
       </c>
       <c r="F72" t="n">
-        <v>5.972313073471089</v>
+        <v>6.914094786087811</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.688411555139117</v>
+        <v>-9.822934966837852</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.037092503332004</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.43578884621293</v>
+        <v>-11.47251275568397</v>
       </c>
       <c r="F73" t="n">
-        <v>6.082576448004105</v>
+        <v>7.079345832556078</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.442158430989091</v>
+        <v>-9.470162866767543</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.217820657119712</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.56659404390461</v>
+        <v>-11.60880362826634</v>
       </c>
       <c r="F74" t="n">
-        <v>6.057282118913891</v>
+        <v>6.97188421083119</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.507109345386894</v>
+        <v>-9.581303425590955</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.388981162360717</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.08438152899204</v>
+        <v>-12.15991102408596</v>
       </c>
       <c r="F75" t="n">
-        <v>6.009102444456339</v>
+        <v>6.968401658275291</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.651059215131673</v>
+        <v>-9.82708522683868</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.55046225820273</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.00836761869298</v>
+        <v>-11.98130582871913</v>
       </c>
       <c r="F76" t="n">
-        <v>5.90192885339397</v>
+        <v>6.860023575351483</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.68669646346685</v>
+        <v>-9.922881606731588</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.700010102163516</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.68475526040507</v>
+        <v>-12.74717936035442</v>
       </c>
       <c r="F77" t="n">
-        <v>5.875927539950301</v>
+        <v>6.783067019247817</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.445798091179091</v>
+        <v>-9.648100354689442</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.837233628062715</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.38088609480249</v>
+        <v>-13.43752339689579</v>
       </c>
       <c r="F78" t="n">
-        <v>5.935549887091522</v>
+        <v>6.838342721845584</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.854719894783683</v>
+        <v>-8.948107290953716</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.95859297049788</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.66496288186226</v>
+        <v>-13.6226485590778</v>
       </c>
       <c r="F79" t="n">
-        <v>6.120098987948492</v>
+        <v>7.042739753810612</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.039373734063389</v>
+        <v>-9.25791045309748</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.06285985215047</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.25501987863601</v>
+        <v>-14.23370560960968</v>
       </c>
       <c r="F80" t="n">
-        <v>6.128897015458132</v>
+        <v>7.011370596201836</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.471534375212045</v>
+        <v>-8.601724234670169</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.145341944105208</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.83960429282192</v>
+        <v>-14.82478380600509</v>
       </c>
       <c r="F81" t="n">
-        <v>6.213499476421366</v>
+        <v>7.164524354844348</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.331551473228311</v>
+        <v>-8.455731965682082</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.201548580795518</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.69035522378012</v>
+        <v>-15.66512635620412</v>
       </c>
       <c r="F82" t="n">
-        <v>6.223580549609495</v>
+        <v>7.229488361544992</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.220057422228171</v>
+        <v>-8.352459880866547</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.225718035423182</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.71173813767454</v>
+        <v>-16.66763016940077</v>
       </c>
       <c r="F83" t="n">
-        <v>6.39063833386992</v>
+        <v>7.392068578233546</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.075701691095299</v>
+        <v>-8.247695273527055</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.210632528968649</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.64355660782871</v>
+        <v>-17.51174330281821</v>
       </c>
       <c r="F84" t="n">
-        <v>6.326302757705678</v>
+        <v>7.354546038289159</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.725980097587112</v>
+        <v>-7.910751767592393</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.151097654129387</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.50975645614015</v>
+        <v>-18.36096243434393</v>
       </c>
       <c r="F85" t="n">
-        <v>6.550233505510561</v>
+        <v>7.511548933967139</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.513033791866438</v>
+        <v>-7.638510422301541</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.04039972879772</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.78850785929722</v>
+        <v>-19.65041024892269</v>
       </c>
       <c r="F86" t="n">
-        <v>6.421117214885459</v>
+        <v>7.371906431857289</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.523154141963093</v>
+        <v>-7.730117265285098</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.876558532759769</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.84188836133681</v>
+        <v>-20.67511860773891</v>
       </c>
       <c r="F87" t="n">
-        <v>6.492391711555815</v>
+        <v>7.499896784438002</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.015146607098438</v>
+        <v>-7.126313350527534</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.657790370747899</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.20665619416402</v>
+        <v>-21.93017294275245</v>
       </c>
       <c r="F88" t="n">
-        <v>6.792153077419975</v>
+        <v>7.852184469303167</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.079311983325737</v>
+        <v>-7.188986204230877</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.387210310737455</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.83374140672806</v>
+        <v>-23.65126088972008</v>
       </c>
       <c r="F89" t="n">
-        <v>6.630960644832643</v>
+        <v>7.663472016142528</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.759872886290463</v>
+        <v>-6.871000352811033</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.070430972119672</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.1218668987198</v>
+        <v>-24.79267403606744</v>
       </c>
       <c r="F90" t="n">
-        <v>6.912418971324071</v>
+        <v>8.020106345551147</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.149342711226129</v>
+        <v>-7.291027612579289</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.714580825420582</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.85850850146339</v>
+        <v>-26.53706628209333</v>
       </c>
       <c r="F91" t="n">
-        <v>7.011763365287088</v>
+        <v>8.092532964871575</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.701926353912983</v>
+        <v>-6.818748972169705</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.329433362886153</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.84226732034457</v>
+        <v>-28.53470294198674</v>
       </c>
       <c r="F92" t="n">
-        <v>6.747613063152423</v>
+        <v>7.752028352563963</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.951871507464375</v>
+        <v>-7.081223459540629</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.9214343391272153</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.70065424721338</v>
+        <v>-30.38439657976864</v>
       </c>
       <c r="F93" t="n">
-        <v>6.764083180127314</v>
+        <v>7.827989893651658</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.271202682723037</v>
+        <v>-6.262522485938972</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.5018552816145215</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.69199350943991</v>
+        <v>-32.34301817719371</v>
       </c>
       <c r="F94" t="n">
-        <v>6.737872389838179</v>
+        <v>7.765330132251157</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.607740327269606</v>
+        <v>-6.681790392142409</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07469991668526384</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.007629113056</v>
+        <v>-34.74947508562285</v>
       </c>
       <c r="F95" t="n">
-        <v>6.69267776042854</v>
+        <v>7.77043613035943</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.026847942485062</v>
+        <v>-5.961962489601468</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3503244302745547</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.42556797107734</v>
+        <v>-37.2000530546286</v>
       </c>
       <c r="F96" t="n">
-        <v>6.461310584609557</v>
+        <v>7.488925434656636</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.972737454840208</v>
+        <v>-5.863403633808954</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.7700132087034628</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.41915910939265</v>
+        <v>-39.14581801066309</v>
       </c>
       <c r="F97" t="n">
-        <v>6.39063833386992</v>
+        <v>7.452895417236206</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.576014494130225</v>
+        <v>-5.411090755233001</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.17758322331357</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.83639098306053</v>
+        <v>-41.55316519568547</v>
       </c>
       <c r="F98" t="n">
-        <v>6.306297718963521</v>
+        <v>7.371068524475418</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.761375317763382</v>
+        <v>-5.575438432805188</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.568105188676788</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.18082965292842</v>
+        <v>-44.01728060582958</v>
       </c>
       <c r="F99" t="n">
-        <v>6.143377102401081</v>
+        <v>7.18350819396485</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.507934519353249</v>
+        <v>-5.31498016007189</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.940292621078108</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.31276715537225</v>
+        <v>-46.12087327262108</v>
       </c>
       <c r="F100" t="n">
-        <v>5.883494890992819</v>
+        <v>6.901709467599539</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.571288172804361</v>
+        <v>-5.354217791688543</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.282846349227326</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.7385221181901</v>
+        <v>-48.53381087095687</v>
       </c>
       <c r="F101" t="n">
-        <v>5.842437429281166</v>
+        <v>6.909669587727308</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.604254591359828</v>
+        <v>-5.326318094332825</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.607831213549531</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.18416428902453</v>
+        <v>-51.08646952521957</v>
       </c>
       <c r="F102" t="n">
-        <v>5.159909497536303</v>
+        <v>6.081712356016552</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.297803058743545</v>
+        <v>-5.007965658433414</v>
       </c>
     </row>
   </sheetData>
